--- a/tesing.xlsx
+++ b/tesing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\serendip-spices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437E3608-17FA-4D07-B68F-85A00E56E57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4CF177-A8ED-45CB-BFB3-7EF884803DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5292" yWindow="984" windowWidth="17280" windowHeight="11256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -697,7 +697,7 @@
   <dimension ref="B3:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
